--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873346.690669236</v>
+        <v>-875731.5118193656</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5927271.091497793</v>
+        <v>5927271.091497846</v>
       </c>
     </row>
     <row r="8">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>93.46554489651999</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>308.1557998191667</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>200.0487225193662</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>53.90009779997683</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>52.50084918926082</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.1529424026871</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>273.3204596584603</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>83.64946247941252</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1057,13 +1057,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>56.1945267710584</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>129.7411677825657</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>13.62152856464951</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>150.5031652935612</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>126.5467427872846</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>67.18727388102279</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.8134134169904</v>
       </c>
       <c r="I11" t="n">
-        <v>19.02368591322656</v>
+        <v>83.75984535611664</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>134.1211173125116</v>
+        <v>134.1211173125117</v>
       </c>
       <c r="T11" t="n">
-        <v>208.7076909869171</v>
+        <v>143.9715315440232</v>
       </c>
       <c r="U11" t="n">
         <v>251.0827054067109</v>
@@ -1464,10 +1464,10 @@
         <v>135.5849007096333</v>
       </c>
       <c r="H12" t="n">
-        <v>95.25091164536761</v>
+        <v>95.25091164536762</v>
       </c>
       <c r="I12" t="n">
-        <v>28.84777688394848</v>
+        <v>28.84777688394853</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.516614399535</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>149.1187276908262</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>198.322437798273</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.6460300583344</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2386094496405</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>111.6474197036731</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>167.3898708950298</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.1755872891501</v>
+        <v>411.17558728915</v>
       </c>
       <c r="H14" t="n">
-        <v>297.2076248638986</v>
+        <v>297.2076248638981</v>
       </c>
       <c r="I14" t="n">
-        <v>51.36393048312027</v>
+        <v>51.36393048311891</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>114.9726338116128</v>
+        <v>114.972633811612</v>
       </c>
       <c r="T14" t="n">
-        <v>205.0292494498821</v>
+        <v>205.029249449882</v>
       </c>
       <c r="U14" t="n">
         <v>251.0154808897577</v>
@@ -1701,10 +1701,10 @@
         <v>135.1352971154112</v>
       </c>
       <c r="H15" t="n">
-        <v>90.90868745906531</v>
+        <v>90.90868745906511</v>
       </c>
       <c r="I15" t="n">
-        <v>13.36800401270725</v>
+        <v>13.36800401270659</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>130.6664522335286</v>
+        <v>130.6664522335282</v>
       </c>
       <c r="T15" t="n">
-        <v>191.2640522740863</v>
+        <v>191.2640522740862</v>
       </c>
       <c r="U15" t="n">
         <v>225.7961044462512</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>108.1913754460142</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.0355000709787</v>
+        <v>206.0612221280001</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2180494923551</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.1755872891501</v>
+        <v>411.17558728915</v>
       </c>
       <c r="H17" t="n">
-        <v>297.2076248638986</v>
+        <v>297.2076248638982</v>
       </c>
       <c r="I17" t="n">
-        <v>51.36393048312027</v>
+        <v>51.36393048311891</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>114.9726338116128</v>
+        <v>114.972633811612</v>
       </c>
       <c r="T17" t="n">
-        <v>205.0292494498821</v>
+        <v>205.029249449882</v>
       </c>
       <c r="U17" t="n">
         <v>251.0154808897577</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,10 +1938,10 @@
         <v>135.1352971154112</v>
       </c>
       <c r="H18" t="n">
-        <v>90.90868745906531</v>
+        <v>90.90868745906511</v>
       </c>
       <c r="I18" t="n">
-        <v>13.36800401270725</v>
+        <v>13.36800401270659</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>130.6664522335286</v>
+        <v>130.6664522335282</v>
       </c>
       <c r="T18" t="n">
-        <v>191.2640522740863</v>
+        <v>191.2640522740862</v>
       </c>
       <c r="U18" t="n">
         <v>225.7961044462512</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.1396818493028</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.7674546533073</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>94.05232337457429</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>286.2180494923551</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>134.6456369927383</v>
+        <v>155.0969770317607</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.1755872891501</v>
+        <v>411.17558728915</v>
       </c>
       <c r="H20" t="n">
-        <v>297.2076248638986</v>
+        <v>297.2076248638982</v>
       </c>
       <c r="I20" t="n">
-        <v>51.36393048312027</v>
+        <v>51.36393048311891</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>114.9726338116128</v>
+        <v>114.972633811612</v>
       </c>
       <c r="T20" t="n">
-        <v>205.0292494498821</v>
+        <v>205.029249449882</v>
       </c>
       <c r="U20" t="n">
         <v>251.0154808897577</v>
@@ -2175,10 +2175,10 @@
         <v>135.1352971154112</v>
       </c>
       <c r="H21" t="n">
-        <v>90.90868745906531</v>
+        <v>90.90868745906511</v>
       </c>
       <c r="I21" t="n">
-        <v>13.36800401270725</v>
+        <v>13.36800401270659</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>130.6664522335286</v>
+        <v>130.6664522335282</v>
       </c>
       <c r="T21" t="n">
-        <v>191.2640522740863</v>
+        <v>191.2640522740862</v>
       </c>
       <c r="U21" t="n">
         <v>225.7961044462512</v>
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>101.9067853595225</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.1396818493028</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>94.05232337457501</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>191.7535314455906</v>
+        <v>191.7535314455903</v>
       </c>
       <c r="T22" t="n">
         <v>220.0355000709787</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2180494923551</v>
       </c>
       <c r="V22" t="n">
-        <v>174.7851553472226</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.1755872891501</v>
+        <v>411.17558728915</v>
       </c>
       <c r="H23" t="n">
-        <v>297.2076248638986</v>
+        <v>297.2076248638982</v>
       </c>
       <c r="I23" t="n">
-        <v>51.36393048312027</v>
+        <v>51.36393048311891</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>114.9726338116128</v>
+        <v>114.972633811612</v>
       </c>
       <c r="T23" t="n">
-        <v>205.0292494498821</v>
+        <v>205.029249449882</v>
       </c>
       <c r="U23" t="n">
         <v>251.0154808897577</v>
@@ -2412,10 +2412,10 @@
         <v>135.1352971154112</v>
       </c>
       <c r="H24" t="n">
-        <v>90.90868745906531</v>
+        <v>90.90868745906511</v>
       </c>
       <c r="I24" t="n">
-        <v>13.36800401270725</v>
+        <v>13.36800401270659</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>130.6664522335286</v>
+        <v>130.6664522335282</v>
       </c>
       <c r="T24" t="n">
-        <v>191.2640522740863</v>
+        <v>191.2640522740862</v>
       </c>
       <c r="U24" t="n">
         <v>225.7961044462512</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78.89948850642118</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.1396818493028</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.7674546533073</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>99.77690983373117</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>94.05232337457429</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>220.0355000709787</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2180494923551</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>8.151613742454142</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>60.55288137824648</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054944</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>42.42206642987902</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>111.9187566128689</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,10 +3187,10 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800361</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996205</v>
       </c>
       <c r="E34" t="n">
         <v>99.45882602797661</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433948</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
@@ -3442,7 +3442,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T46" t="n">
         <v>172.5738126575766</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1684.414116819363</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="C2" t="n">
-        <v>1315.451599878952</v>
+        <v>876.077118489279</v>
       </c>
       <c r="D2" t="n">
-        <v>1315.451599878952</v>
+        <v>517.8114198825285</v>
       </c>
       <c r="E2" t="n">
-        <v>929.6633472807073</v>
+        <v>423.4017785729123</v>
       </c>
       <c r="F2" t="n">
-        <v>518.6774424910998</v>
+        <v>423.4017785729123</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>409.4783745115033</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.879875080443</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X2" t="n">
-        <v>1684.414116819363</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y2" t="n">
-        <v>1684.414116819363</v>
+        <v>1245.039635429691</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D4" t="n">
-        <v>559.1928012785273</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E4" t="n">
-        <v>506.1616404812942</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>575.3252545522914</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>575.3252545522914</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>575.3252545522914</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>575.3252545522914</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>575.3252545522914</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>575.3252545522914</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>575.3252545522914</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>575.3252545522914</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1116.950579244872</v>
+        <v>1757.312204670903</v>
       </c>
       <c r="C5" t="n">
-        <v>747.9880623044608</v>
+        <v>1388.349687730491</v>
       </c>
       <c r="D5" t="n">
-        <v>747.9880623044608</v>
+        <v>1030.083989123741</v>
       </c>
       <c r="E5" t="n">
-        <v>747.9880623044608</v>
+        <v>1030.083989123741</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>619.0980843341331</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4598,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>1893.689751284806</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X5" t="n">
-        <v>1893.689751284806</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="Y5" t="n">
-        <v>1503.550419308994</v>
+        <v>1757.312204670903</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4665,22 +4665,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.2978374347314</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C7" t="n">
-        <v>156.3616545068245</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>325.2978374347314</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>325.2978374347314</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>325.2978374347314</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y7" t="n">
-        <v>325.2978374347314</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1721.819089287443</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.819089287443</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2095.284847548523</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2095.284847548523</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2095.284847548523</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1721.819089287443</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1721.819089287443</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.820796875036</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>331.8846139471291</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>181.7679745347934</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>181.7679745347934</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>181.7679745347934</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>181.7679745347934</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>181.7679745347934</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>512.1163924274641</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>512.1163924274641</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>222.942782082032</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X10" t="n">
-        <v>500.820796875036</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.820796875036</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2364.262517753845</v>
+        <v>2429.652577797168</v>
       </c>
       <c r="C11" t="n">
-        <v>1995.300000813433</v>
+        <v>2060.690060856757</v>
       </c>
       <c r="D11" t="n">
-        <v>1637.034302206683</v>
+        <v>1702.424362250006</v>
       </c>
       <c r="E11" t="n">
-        <v>1251.246049608438</v>
+        <v>1316.636109651762</v>
       </c>
       <c r="F11" t="n">
-        <v>840.2601448188309</v>
+        <v>905.6502048621542</v>
       </c>
       <c r="G11" t="n">
-        <v>424.0824743632091</v>
+        <v>489.4725344065323</v>
       </c>
       <c r="H11" t="n">
-        <v>115.1800365682692</v>
+        <v>180.5700966115924</v>
       </c>
       <c r="I11" t="n">
-        <v>95.9641922114747</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="J11" t="n">
-        <v>360.3114841118945</v>
+        <v>360.311484111895</v>
       </c>
       <c r="K11" t="n">
-        <v>877.2443539520347</v>
+        <v>877.244353952035</v>
       </c>
       <c r="L11" t="n">
-        <v>1570.821916862107</v>
+        <v>1570.821916862106</v>
       </c>
       <c r="M11" t="n">
-        <v>2359.167139161803</v>
+        <v>2359.167139161802</v>
       </c>
       <c r="N11" t="n">
-        <v>3145.63661380205</v>
+        <v>3145.636613802048</v>
       </c>
       <c r="O11" t="n">
-        <v>3843.08979922553</v>
+        <v>3843.089799225527</v>
       </c>
       <c r="P11" t="n">
-        <v>4400.6755739272</v>
+        <v>4400.675573927198</v>
       </c>
       <c r="Q11" t="n">
-        <v>4742.17750973669</v>
+        <v>4742.177509736686</v>
       </c>
       <c r="R11" t="n">
-        <v>4798.209610573735</v>
+        <v>4798.209610573731</v>
       </c>
       <c r="S11" t="n">
-        <v>4662.733734500491</v>
+        <v>4662.733734500487</v>
       </c>
       <c r="T11" t="n">
-        <v>4451.917885018756</v>
+        <v>4517.30794506208</v>
       </c>
       <c r="U11" t="n">
-        <v>4198.298990668543</v>
+        <v>4263.689050711867</v>
       </c>
       <c r="V11" t="n">
-        <v>3867.236103324973</v>
+        <v>3932.626163368296</v>
       </c>
       <c r="W11" t="n">
-        <v>3514.467448054858</v>
+        <v>3579.857508098182</v>
       </c>
       <c r="X11" t="n">
-        <v>3141.001689793778</v>
+        <v>3206.391749837102</v>
       </c>
       <c r="Y11" t="n">
-        <v>2750.862357817967</v>
+        <v>2816.25241786129</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.1033607811196</v>
       </c>
       <c r="I12" t="n">
-        <v>95.9641922114747</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="J12" t="n">
-        <v>134.8841236371111</v>
+        <v>259.7142486241157</v>
       </c>
       <c r="K12" t="n">
-        <v>541.3798948863721</v>
+        <v>666.2100198733765</v>
       </c>
       <c r="L12" t="n">
-        <v>782.2360784613336</v>
+        <v>1129.164660251514</v>
       </c>
       <c r="M12" t="n">
-        <v>1354.943779073084</v>
+        <v>1429.58933420351</v>
       </c>
       <c r="N12" t="n">
-        <v>1677.728445118821</v>
+        <v>1752.374000249246</v>
       </c>
       <c r="O12" t="n">
-        <v>2340.717254332782</v>
+        <v>2025.439113379244</v>
       </c>
       <c r="P12" t="n">
         <v>2540.543015221951</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.9301081341105</v>
+        <v>881.7536860031621</v>
       </c>
       <c r="C13" t="n">
-        <v>393.9939252062036</v>
+        <v>712.8175030752552</v>
       </c>
       <c r="D13" t="n">
-        <v>243.8772857938678</v>
+        <v>562.7008636629195</v>
       </c>
       <c r="E13" t="n">
-        <v>95.9641922114747</v>
+        <v>414.7877700805263</v>
       </c>
       <c r="F13" t="n">
-        <v>95.9641922114747</v>
+        <v>414.7877700805263</v>
       </c>
       <c r="G13" t="n">
-        <v>95.9641922114747</v>
+        <v>246.5891696769556</v>
       </c>
       <c r="H13" t="n">
-        <v>95.9641922114747</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="I13" t="n">
-        <v>95.9641922114747</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="J13" t="n">
-        <v>106.733830465922</v>
+        <v>106.7338304659218</v>
       </c>
       <c r="K13" t="n">
-        <v>254.2684911337131</v>
+        <v>254.2684911337128</v>
       </c>
       <c r="L13" t="n">
-        <v>498.5884969855841</v>
+        <v>498.5884969855837</v>
       </c>
       <c r="M13" t="n">
-        <v>766.5788100583136</v>
+        <v>766.5788100583129</v>
       </c>
       <c r="N13" t="n">
-        <v>1033.631528895829</v>
+        <v>1033.631528895828</v>
       </c>
       <c r="O13" t="n">
-        <v>1264.281642962853</v>
+        <v>1264.281642962851</v>
       </c>
       <c r="P13" t="n">
-        <v>1438.121979356797</v>
+        <v>1438.121979356796</v>
       </c>
       <c r="Q13" t="n">
-        <v>1475.044937267443</v>
+        <v>1475.044937267442</v>
       </c>
       <c r="R13" t="n">
-        <v>1475.044937267443</v>
+        <v>1475.044937267442</v>
       </c>
       <c r="S13" t="n">
-        <v>1475.044937267443</v>
+        <v>1274.719242521712</v>
       </c>
       <c r="T13" t="n">
-        <v>1475.044937267443</v>
+        <v>1050.834363674909</v>
       </c>
       <c r="U13" t="n">
-        <v>1185.915028732453</v>
+        <v>1050.834363674909</v>
       </c>
       <c r="V13" t="n">
-        <v>1073.139857314601</v>
+        <v>1050.834363674909</v>
       </c>
       <c r="W13" t="n">
-        <v>783.7226872776406</v>
+        <v>1050.834363674909</v>
       </c>
       <c r="X13" t="n">
-        <v>783.7226872776406</v>
+        <v>881.7536860031621</v>
       </c>
       <c r="Y13" t="n">
-        <v>562.9301081341105</v>
+        <v>881.7536860031621</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2387.387921344638</v>
+        <v>2387.387921344637</v>
       </c>
       <c r="C14" t="n">
-        <v>2018.425404404227</v>
+        <v>2018.425404404225</v>
       </c>
       <c r="D14" t="n">
-        <v>1660.159705797476</v>
+        <v>1660.159705797475</v>
       </c>
       <c r="E14" t="n">
-        <v>1274.371453199232</v>
+        <v>1274.371453199231</v>
       </c>
       <c r="F14" t="n">
-        <v>863.3855484096252</v>
+        <v>863.3855484096232</v>
       </c>
       <c r="G14" t="n">
-        <v>448.0566723599786</v>
+        <v>448.0566723599767</v>
       </c>
       <c r="H14" t="n">
-        <v>147.8469502752326</v>
+        <v>147.8469502752311</v>
       </c>
       <c r="I14" t="n">
-        <v>95.9641922114747</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="J14" t="n">
-        <v>263.5125960578204</v>
+        <v>430.9182450781764</v>
       </c>
       <c r="K14" t="n">
-        <v>565.362739226339</v>
+        <v>1053.672346692153</v>
       </c>
       <c r="L14" t="n">
-        <v>1390.22089750525</v>
+        <v>1752.411838122395</v>
       </c>
       <c r="M14" t="n">
-        <v>2324.641077215453</v>
+        <v>2241.8136196747</v>
       </c>
       <c r="N14" t="n">
-        <v>3259.549154793775</v>
+        <v>2743.748242085164</v>
       </c>
       <c r="O14" t="n">
-        <v>4097.168703748464</v>
+        <v>3581.367791039859</v>
       </c>
       <c r="P14" t="n">
-        <v>4533.833410579561</v>
+        <v>4258.582314151992</v>
       </c>
       <c r="Q14" t="n">
-        <v>4754.979713630527</v>
+        <v>4689.920457956268</v>
       </c>
       <c r="R14" t="n">
-        <v>4798.209610573735</v>
+        <v>4798.209610573731</v>
       </c>
       <c r="S14" t="n">
-        <v>4682.07563702665</v>
+        <v>4682.075637026648</v>
       </c>
       <c r="T14" t="n">
-        <v>4474.975385057072</v>
+        <v>4474.975385057071</v>
       </c>
       <c r="U14" t="n">
-        <v>4221.424394259337</v>
+        <v>4221.424394259336</v>
       </c>
       <c r="V14" t="n">
-        <v>3890.361506915766</v>
+        <v>3890.361506915765</v>
       </c>
       <c r="W14" t="n">
-        <v>3537.592851645652</v>
+        <v>3537.592851645651</v>
       </c>
       <c r="X14" t="n">
-        <v>3164.127093384572</v>
+        <v>3164.127093384571</v>
       </c>
       <c r="Y14" t="n">
-        <v>2773.98776140876</v>
+        <v>2773.987761408759</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.9539356346294</v>
+        <v>966.9539356346285</v>
       </c>
       <c r="C15" t="n">
-        <v>792.5009063535024</v>
+        <v>792.5009063535015</v>
       </c>
       <c r="D15" t="n">
-        <v>643.5664966922511</v>
+        <v>643.5664966922502</v>
       </c>
       <c r="E15" t="n">
-        <v>484.3290416867956</v>
+        <v>484.3290416867947</v>
       </c>
       <c r="F15" t="n">
-        <v>337.7944837136805</v>
+        <v>337.7944837136796</v>
       </c>
       <c r="G15" t="n">
-        <v>201.2941835971035</v>
+        <v>201.2941835971026</v>
       </c>
       <c r="H15" t="n">
-        <v>109.4672265677446</v>
+        <v>109.4672265677439</v>
       </c>
       <c r="I15" t="n">
-        <v>95.9641922114747</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="J15" t="n">
-        <v>301.7671517508946</v>
+        <v>176.9370267638916</v>
       </c>
       <c r="K15" t="n">
-        <v>518.3174478892295</v>
+        <v>599.9081695135828</v>
       </c>
       <c r="L15" t="n">
-        <v>855.8185861687627</v>
+        <v>937.4093077931202</v>
       </c>
       <c r="M15" t="n">
-        <v>1269.023363812975</v>
+        <v>1350.614085437337</v>
       </c>
       <c r="N15" t="n">
-        <v>1707.573087307987</v>
+        <v>1789.163808932354</v>
       </c>
       <c r="O15" t="n">
-        <v>2086.540611464324</v>
+        <v>2168.131333088696</v>
       </c>
       <c r="P15" t="n">
-        <v>2416.377058147344</v>
+        <v>2452.953115347986</v>
       </c>
       <c r="Q15" t="n">
-        <v>2556.853680347983</v>
+        <v>2593.429737548628</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.429737548629</v>
+        <v>2593.429737548628</v>
       </c>
       <c r="S15" t="n">
-        <v>2461.443422161227</v>
+        <v>2461.443422161225</v>
       </c>
       <c r="T15" t="n">
-        <v>2268.24740976316</v>
+        <v>2268.247409763159</v>
       </c>
       <c r="U15" t="n">
-        <v>2040.170536585128</v>
+        <v>2040.170536585127</v>
       </c>
       <c r="V15" t="n">
-        <v>1805.018428353386</v>
+        <v>1805.018428353385</v>
       </c>
       <c r="W15" t="n">
-        <v>1550.781071625184</v>
+        <v>1550.781071625183</v>
       </c>
       <c r="X15" t="n">
-        <v>1342.929571419651</v>
+        <v>1342.92957141965</v>
       </c>
       <c r="Y15" t="n">
-        <v>1135.169272654697</v>
+        <v>1135.169272654696</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>668.9876338419216</v>
+        <v>393.9939252062035</v>
       </c>
       <c r="C16" t="n">
-        <v>500.0514509140147</v>
+        <v>393.9939252062035</v>
       </c>
       <c r="D16" t="n">
-        <v>500.0514509140147</v>
+        <v>243.8772857938677</v>
       </c>
       <c r="E16" t="n">
-        <v>352.1383573316216</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="F16" t="n">
-        <v>205.2484098337112</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="G16" t="n">
-        <v>205.2484098337112</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="H16" t="n">
-        <v>95.9641922114747</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="I16" t="n">
-        <v>95.9641922114747</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="J16" t="n">
-        <v>133.116470454322</v>
+        <v>133.116470454323</v>
       </c>
       <c r="K16" t="n">
-        <v>324.0059130498169</v>
+        <v>324.0059130498197</v>
       </c>
       <c r="L16" t="n">
-        <v>623.8051132401595</v>
+        <v>623.8051132401647</v>
       </c>
       <c r="M16" t="n">
-        <v>950.2904579857682</v>
+        <v>950.2904579857759</v>
       </c>
       <c r="N16" t="n">
-        <v>1274.447327385806</v>
+        <v>1274.447327385816</v>
       </c>
       <c r="O16" t="n">
-        <v>1557.842367071917</v>
+        <v>1557.84236707193</v>
       </c>
       <c r="P16" t="n">
-        <v>1776.81509930046</v>
+        <v>1776.815099300474</v>
       </c>
       <c r="Q16" t="n">
-        <v>1844.985388692803</v>
+        <v>1844.985388692819</v>
       </c>
       <c r="R16" t="n">
-        <v>1844.985388692803</v>
+        <v>1844.985388692819</v>
       </c>
       <c r="S16" t="n">
-        <v>1844.985388692803</v>
+        <v>1844.985388692819</v>
       </c>
       <c r="T16" t="n">
-        <v>1622.727307813026</v>
+        <v>1636.842740078677</v>
       </c>
       <c r="U16" t="n">
-        <v>1622.727307813026</v>
+        <v>1347.733599177308</v>
       </c>
       <c r="V16" t="n">
-        <v>1368.042819607139</v>
+        <v>1093.049110971421</v>
       </c>
       <c r="W16" t="n">
-        <v>1078.625649570179</v>
+        <v>803.6319409344605</v>
       </c>
       <c r="X16" t="n">
-        <v>850.6360986721613</v>
+        <v>575.6423900364432</v>
       </c>
       <c r="Y16" t="n">
-        <v>850.6360986721613</v>
+        <v>575.6423900364432</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2387.387921344639</v>
+        <v>2387.387921344637</v>
       </c>
       <c r="C17" t="n">
-        <v>2018.425404404227</v>
+        <v>2018.425404404226</v>
       </c>
       <c r="D17" t="n">
-        <v>1660.159705797477</v>
+        <v>1660.159705797475</v>
       </c>
       <c r="E17" t="n">
-        <v>1274.371453199233</v>
+        <v>1274.371453199232</v>
       </c>
       <c r="F17" t="n">
-        <v>863.3855484096252</v>
+        <v>863.385548409624</v>
       </c>
       <c r="G17" t="n">
-        <v>448.0566723599786</v>
+        <v>448.0566723599767</v>
       </c>
       <c r="H17" t="n">
-        <v>147.8469502752326</v>
+        <v>147.8469502752311</v>
       </c>
       <c r="I17" t="n">
-        <v>95.9641922114747</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="J17" t="n">
-        <v>400.5986849047561</v>
+        <v>430.9182450781764</v>
       </c>
       <c r="K17" t="n">
-        <v>1023.352786518728</v>
+        <v>1053.672346692153</v>
       </c>
       <c r="L17" t="n">
-        <v>1848.210944797639</v>
+        <v>1465.045902566123</v>
       </c>
       <c r="M17" t="n">
-        <v>2337.612726349937</v>
+        <v>2399.466082276332</v>
       </c>
       <c r="N17" t="n">
-        <v>3272.52080392826</v>
+        <v>2901.400704686796</v>
       </c>
       <c r="O17" t="n">
-        <v>4110.140352882949</v>
+        <v>3581.367791039859</v>
       </c>
       <c r="P17" t="n">
-        <v>4468.774154905309</v>
+        <v>4258.582314151992</v>
       </c>
       <c r="Q17" t="n">
-        <v>4689.920457956275</v>
+        <v>4689.920457956268</v>
       </c>
       <c r="R17" t="n">
-        <v>4798.209610573735</v>
+        <v>4798.209610573731</v>
       </c>
       <c r="S17" t="n">
-        <v>4682.075637026651</v>
+        <v>4682.075637026648</v>
       </c>
       <c r="T17" t="n">
-        <v>4474.975385057073</v>
+        <v>4474.975385057071</v>
       </c>
       <c r="U17" t="n">
-        <v>4221.424394259338</v>
+        <v>4221.424394259336</v>
       </c>
       <c r="V17" t="n">
-        <v>3890.361506915768</v>
+        <v>3890.361506915765</v>
       </c>
       <c r="W17" t="n">
-        <v>3537.592851645653</v>
+        <v>3537.592851645651</v>
       </c>
       <c r="X17" t="n">
-        <v>3164.127093384573</v>
+        <v>3164.127093384571</v>
       </c>
       <c r="Y17" t="n">
-        <v>2773.987761408761</v>
+        <v>2773.987761408759</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>966.9539356346294</v>
+        <v>966.9539356346285</v>
       </c>
       <c r="C18" t="n">
-        <v>792.5009063535024</v>
+        <v>792.5009063535015</v>
       </c>
       <c r="D18" t="n">
-        <v>643.5664966922511</v>
+        <v>643.5664966922502</v>
       </c>
       <c r="E18" t="n">
-        <v>484.3290416867956</v>
+        <v>484.3290416867947</v>
       </c>
       <c r="F18" t="n">
-        <v>337.7944837136805</v>
+        <v>337.7944837136796</v>
       </c>
       <c r="G18" t="n">
-        <v>201.2941835971035</v>
+        <v>201.2941835971026</v>
       </c>
       <c r="H18" t="n">
-        <v>109.4672265677446</v>
+        <v>109.4672265677439</v>
       </c>
       <c r="I18" t="n">
-        <v>95.9641922114747</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="J18" t="n">
-        <v>176.9370267638899</v>
+        <v>301.7671517508963</v>
       </c>
       <c r="K18" t="n">
-        <v>599.9081695136094</v>
+        <v>518.3174478892342</v>
       </c>
       <c r="L18" t="n">
-        <v>937.4093077931427</v>
+        <v>855.8185861687716</v>
       </c>
       <c r="M18" t="n">
-        <v>1350.614085437355</v>
+        <v>1269.023363812988</v>
       </c>
       <c r="N18" t="n">
-        <v>1789.163808932367</v>
+        <v>1707.573087308005</v>
       </c>
       <c r="O18" t="n">
-        <v>2168.131333088704</v>
+        <v>2086.540611464347</v>
       </c>
       <c r="P18" t="n">
-        <v>2452.95311534799</v>
+        <v>2371.362393723637</v>
       </c>
       <c r="Q18" t="n">
-        <v>2593.429737548629</v>
+        <v>2593.429737548628</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.429737548629</v>
+        <v>2593.429737548628</v>
       </c>
       <c r="S18" t="n">
-        <v>2461.443422161227</v>
+        <v>2461.443422161225</v>
       </c>
       <c r="T18" t="n">
-        <v>2268.24740976316</v>
+        <v>2268.247409763159</v>
       </c>
       <c r="U18" t="n">
-        <v>2040.170536585128</v>
+        <v>2040.170536585127</v>
       </c>
       <c r="V18" t="n">
-        <v>1805.018428353386</v>
+        <v>1805.018428353385</v>
       </c>
       <c r="W18" t="n">
-        <v>1550.781071625184</v>
+        <v>1550.781071625183</v>
       </c>
       <c r="X18" t="n">
-        <v>1342.929571419651</v>
+        <v>1342.92957141965</v>
       </c>
       <c r="Y18" t="n">
-        <v>1135.169272654697</v>
+        <v>1135.169272654696</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>432.7182355932229</v>
+        <v>390.0939928945439</v>
       </c>
       <c r="C19" t="n">
-        <v>263.7820526653159</v>
+        <v>390.0939928945439</v>
       </c>
       <c r="D19" t="n">
-        <v>263.7820526653159</v>
+        <v>390.0939928945439</v>
       </c>
       <c r="E19" t="n">
-        <v>263.7820526653159</v>
+        <v>390.0939928945439</v>
       </c>
       <c r="F19" t="n">
-        <v>263.7820526653159</v>
+        <v>243.2040453966335</v>
       </c>
       <c r="G19" t="n">
-        <v>95.9641922114747</v>
+        <v>243.2040453966335</v>
       </c>
       <c r="H19" t="n">
-        <v>95.9641922114747</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="I19" t="n">
-        <v>95.9641922114747</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="J19" t="n">
-        <v>133.116470454322</v>
+        <v>133.116470454323</v>
       </c>
       <c r="K19" t="n">
-        <v>324.0059130498169</v>
+        <v>324.0059130498197</v>
       </c>
       <c r="L19" t="n">
-        <v>623.8051132401595</v>
+        <v>623.8051132401647</v>
       </c>
       <c r="M19" t="n">
-        <v>950.2904579857682</v>
+        <v>950.2904579857759</v>
       </c>
       <c r="N19" t="n">
-        <v>1274.447327385806</v>
+        <v>1274.447327385816</v>
       </c>
       <c r="O19" t="n">
-        <v>1557.842367071917</v>
+        <v>1557.84236707193</v>
       </c>
       <c r="P19" t="n">
-        <v>1776.815099300462</v>
+        <v>1776.815099300474</v>
       </c>
       <c r="Q19" t="n">
-        <v>1844.985388692805</v>
+        <v>1844.985388692819</v>
       </c>
       <c r="R19" t="n">
-        <v>1844.985388692805</v>
+        <v>1749.983041849814</v>
       </c>
       <c r="S19" t="n">
-        <v>1844.985388692805</v>
+        <v>1749.983041849814</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.727307813028</v>
+        <v>1527.724960970038</v>
       </c>
       <c r="U19" t="n">
-        <v>1333.61816691166</v>
+        <v>1238.615820068669</v>
       </c>
       <c r="V19" t="n">
-        <v>1078.933678705773</v>
+        <v>1238.615820068669</v>
       </c>
       <c r="W19" t="n">
-        <v>789.5165086688119</v>
+        <v>949.1986500317084</v>
       </c>
       <c r="X19" t="n">
-        <v>653.510814736753</v>
+        <v>792.5350368683138</v>
       </c>
       <c r="Y19" t="n">
-        <v>432.7182355932229</v>
+        <v>571.7424577247837</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2387.387921344639</v>
+        <v>2387.387921344638</v>
       </c>
       <c r="C20" t="n">
-        <v>2018.425404404227</v>
+        <v>2018.425404404226</v>
       </c>
       <c r="D20" t="n">
-        <v>1660.159705797477</v>
+        <v>1660.159705797475</v>
       </c>
       <c r="E20" t="n">
-        <v>1274.371453199233</v>
+        <v>1274.371453199231</v>
       </c>
       <c r="F20" t="n">
-        <v>863.3855484096252</v>
+        <v>863.3855484096233</v>
       </c>
       <c r="G20" t="n">
-        <v>448.0566723599786</v>
+        <v>448.0566723599768</v>
       </c>
       <c r="H20" t="n">
-        <v>147.8469502752326</v>
+        <v>147.8469502752311</v>
       </c>
       <c r="I20" t="n">
-        <v>95.9641922114747</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="J20" t="n">
-        <v>430.9182450781734</v>
+        <v>430.9182450781764</v>
       </c>
       <c r="K20" t="n">
-        <v>1053.672346692145</v>
+        <v>1053.672346692153</v>
       </c>
       <c r="L20" t="n">
-        <v>1752.411838122428</v>
+        <v>1878.530504971069</v>
       </c>
       <c r="M20" t="n">
-        <v>2241.813619674727</v>
+        <v>2367.932286523374</v>
       </c>
       <c r="N20" t="n">
-        <v>2743.748242085185</v>
+        <v>2869.866908933838</v>
       </c>
       <c r="O20" t="n">
-        <v>3581.367791039874</v>
+        <v>3707.486457888534</v>
       </c>
       <c r="P20" t="n">
-        <v>4258.582314152002</v>
+        <v>4384.700981000667</v>
       </c>
       <c r="Q20" t="n">
-        <v>4689.920457956274</v>
+        <v>4754.979713630521</v>
       </c>
       <c r="R20" t="n">
-        <v>4798.209610573734</v>
+        <v>4798.209610573731</v>
       </c>
       <c r="S20" t="n">
-        <v>4682.07563702665</v>
+        <v>4682.075637026648</v>
       </c>
       <c r="T20" t="n">
-        <v>4474.975385057072</v>
+        <v>4474.975385057071</v>
       </c>
       <c r="U20" t="n">
-        <v>4221.424394259338</v>
+        <v>4221.424394259336</v>
       </c>
       <c r="V20" t="n">
-        <v>3890.361506915767</v>
+        <v>3890.361506915765</v>
       </c>
       <c r="W20" t="n">
-        <v>3537.592851645653</v>
+        <v>3537.592851645651</v>
       </c>
       <c r="X20" t="n">
-        <v>3164.127093384573</v>
+        <v>3164.127093384571</v>
       </c>
       <c r="Y20" t="n">
-        <v>2773.987761408761</v>
+        <v>2773.98776140876</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>966.9539356346294</v>
+        <v>966.9539356346285</v>
       </c>
       <c r="C21" t="n">
-        <v>792.5009063535024</v>
+        <v>792.5009063535015</v>
       </c>
       <c r="D21" t="n">
-        <v>643.5664966922511</v>
+        <v>643.5664966922502</v>
       </c>
       <c r="E21" t="n">
-        <v>484.3290416867956</v>
+        <v>484.3290416867947</v>
       </c>
       <c r="F21" t="n">
-        <v>337.7944837136805</v>
+        <v>337.7944837136796</v>
       </c>
       <c r="G21" t="n">
-        <v>201.2941835971035</v>
+        <v>201.2941835971026</v>
       </c>
       <c r="H21" t="n">
-        <v>109.4672265677446</v>
+        <v>109.4672265677439</v>
       </c>
       <c r="I21" t="n">
-        <v>95.9641922114747</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="J21" t="n">
-        <v>176.9370267638899</v>
+        <v>301.7671517508963</v>
       </c>
       <c r="K21" t="n">
-        <v>393.4873229022247</v>
+        <v>518.3174478892342</v>
       </c>
       <c r="L21" t="n">
-        <v>730.9884611817581</v>
+        <v>855.8185861687716</v>
       </c>
       <c r="M21" t="n">
-        <v>1144.19323882597</v>
+        <v>1269.023363812988</v>
       </c>
       <c r="N21" t="n">
-        <v>1582.742962320982</v>
+        <v>1707.573087308005</v>
       </c>
       <c r="O21" t="n">
-        <v>1961.71048647732</v>
+        <v>2086.540611464347</v>
       </c>
       <c r="P21" t="n">
-        <v>2246.532268736606</v>
+        <v>2371.362393723637</v>
       </c>
       <c r="Q21" t="n">
-        <v>2593.429737548629</v>
+        <v>2593.429737548628</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.429737548629</v>
+        <v>2593.429737548628</v>
       </c>
       <c r="S21" t="n">
-        <v>2461.443422161227</v>
+        <v>2461.443422161225</v>
       </c>
       <c r="T21" t="n">
-        <v>2268.24740976316</v>
+        <v>2268.247409763159</v>
       </c>
       <c r="U21" t="n">
-        <v>2040.170536585128</v>
+        <v>2040.170536585127</v>
       </c>
       <c r="V21" t="n">
-        <v>1805.018428353386</v>
+        <v>1805.018428353385</v>
       </c>
       <c r="W21" t="n">
-        <v>1550.781071625184</v>
+        <v>1550.781071625183</v>
       </c>
       <c r="X21" t="n">
-        <v>1342.929571419651</v>
+        <v>1342.92957141965</v>
       </c>
       <c r="Y21" t="n">
-        <v>1135.169272654697</v>
+        <v>1135.169272654696</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>708.7017331579551</v>
+        <v>367.8365219671821</v>
       </c>
       <c r="C22" t="n">
-        <v>708.7017331579551</v>
+        <v>198.9003390392752</v>
       </c>
       <c r="D22" t="n">
-        <v>558.5850937456194</v>
+        <v>198.9003390392752</v>
       </c>
       <c r="E22" t="n">
-        <v>410.6720001632262</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="F22" t="n">
-        <v>263.7820526653159</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="G22" t="n">
-        <v>95.9641922114747</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="H22" t="n">
-        <v>95.9641922114747</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="I22" t="n">
-        <v>95.9641922114747</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="J22" t="n">
-        <v>133.116470454322</v>
+        <v>133.116470454323</v>
       </c>
       <c r="K22" t="n">
-        <v>324.0059130498169</v>
+        <v>324.0059130498197</v>
       </c>
       <c r="L22" t="n">
-        <v>623.8051132401595</v>
+        <v>623.8051132401647</v>
       </c>
       <c r="M22" t="n">
-        <v>950.2904579857682</v>
+        <v>950.2904579857759</v>
       </c>
       <c r="N22" t="n">
-        <v>1274.447327385806</v>
+        <v>1274.447327385816</v>
       </c>
       <c r="O22" t="n">
-        <v>1557.842367071917</v>
+        <v>1557.84236707193</v>
       </c>
       <c r="P22" t="n">
-        <v>1776.81509930046</v>
+        <v>1776.815099300474</v>
       </c>
       <c r="Q22" t="n">
-        <v>1844.985388692803</v>
+        <v>1844.985388692819</v>
       </c>
       <c r="R22" t="n">
-        <v>1749.983041849798</v>
+        <v>1844.985388692819</v>
       </c>
       <c r="S22" t="n">
-        <v>1556.292606046171</v>
+        <v>1651.294952889192</v>
       </c>
       <c r="T22" t="n">
-        <v>1334.034525166394</v>
+        <v>1429.036872009416</v>
       </c>
       <c r="U22" t="n">
-        <v>1334.034525166394</v>
+        <v>1139.927731108047</v>
       </c>
       <c r="V22" t="n">
-        <v>1157.483863199503</v>
+        <v>885.24324290216</v>
       </c>
       <c r="W22" t="n">
-        <v>1157.483863199503</v>
+        <v>595.8260728651994</v>
       </c>
       <c r="X22" t="n">
-        <v>929.4943123014853</v>
+        <v>367.8365219671821</v>
       </c>
       <c r="Y22" t="n">
-        <v>708.7017331579551</v>
+        <v>367.8365219671821</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2387.387921344638</v>
+        <v>2387.387921344634</v>
       </c>
       <c r="C23" t="n">
-        <v>2018.425404404227</v>
+        <v>2018.425404404223</v>
       </c>
       <c r="D23" t="n">
-        <v>1660.159705797476</v>
+        <v>1660.159705797473</v>
       </c>
       <c r="E23" t="n">
-        <v>1274.371453199232</v>
+        <v>1274.371453199229</v>
       </c>
       <c r="F23" t="n">
-        <v>863.3855484096248</v>
+        <v>863.3855484096216</v>
       </c>
       <c r="G23" t="n">
-        <v>448.056672359979</v>
+        <v>448.0566723599759</v>
       </c>
       <c r="H23" t="n">
-        <v>147.8469502752326</v>
+        <v>147.8469502752309</v>
       </c>
       <c r="I23" t="n">
-        <v>95.9641922114747</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="J23" t="n">
-        <v>263.5125960578204</v>
+        <v>430.9182450781764</v>
       </c>
       <c r="K23" t="n">
-        <v>643.3936440350759</v>
+        <v>1053.672346692153</v>
       </c>
       <c r="L23" t="n">
-        <v>1468.251802313987</v>
+        <v>1752.411838122395</v>
       </c>
       <c r="M23" t="n">
-        <v>2402.67198202419</v>
+        <v>2241.8136196747</v>
       </c>
       <c r="N23" t="n">
-        <v>3337.580059602512</v>
+        <v>2743.748242085164</v>
       </c>
       <c r="O23" t="n">
-        <v>4175.199608557201</v>
+        <v>3581.367791039859</v>
       </c>
       <c r="P23" t="n">
-        <v>4533.833410579561</v>
+        <v>4258.582314151992</v>
       </c>
       <c r="Q23" t="n">
-        <v>4754.979713630527</v>
+        <v>4689.920457956268</v>
       </c>
       <c r="R23" t="n">
-        <v>4798.209610573735</v>
+        <v>4798.209610573731</v>
       </c>
       <c r="S23" t="n">
-        <v>4682.07563702665</v>
+        <v>4682.075637026647</v>
       </c>
       <c r="T23" t="n">
-        <v>4474.975385057072</v>
+        <v>4474.975385057069</v>
       </c>
       <c r="U23" t="n">
-        <v>4221.424394259337</v>
+        <v>4221.424394259333</v>
       </c>
       <c r="V23" t="n">
-        <v>3890.361506915766</v>
+        <v>3890.361506915762</v>
       </c>
       <c r="W23" t="n">
-        <v>3537.592851645652</v>
+        <v>3537.592851645648</v>
       </c>
       <c r="X23" t="n">
-        <v>3164.127093384572</v>
+        <v>3164.127093384568</v>
       </c>
       <c r="Y23" t="n">
-        <v>2773.98776140876</v>
+        <v>2773.987761408756</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>966.9539356346294</v>
+        <v>966.9539356346285</v>
       </c>
       <c r="C24" t="n">
-        <v>792.5009063535024</v>
+        <v>792.5009063535015</v>
       </c>
       <c r="D24" t="n">
-        <v>643.5664966922511</v>
+        <v>643.5664966922502</v>
       </c>
       <c r="E24" t="n">
-        <v>484.3290416867956</v>
+        <v>484.3290416867947</v>
       </c>
       <c r="F24" t="n">
-        <v>337.7944837136805</v>
+        <v>337.7944837136796</v>
       </c>
       <c r="G24" t="n">
-        <v>201.2941835971035</v>
+        <v>201.2941835971026</v>
       </c>
       <c r="H24" t="n">
-        <v>109.4672265677446</v>
+        <v>109.4672265677439</v>
       </c>
       <c r="I24" t="n">
-        <v>95.9641922114747</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="J24" t="n">
-        <v>176.9370267638899</v>
+        <v>301.7671517508963</v>
       </c>
       <c r="K24" t="n">
-        <v>599.9081695136094</v>
+        <v>518.3174478892342</v>
       </c>
       <c r="L24" t="n">
-        <v>937.4093077931427</v>
+        <v>855.8185861687716</v>
       </c>
       <c r="M24" t="n">
-        <v>1350.614085437355</v>
+        <v>1269.023363812988</v>
       </c>
       <c r="N24" t="n">
-        <v>1789.163808932367</v>
+        <v>1707.573087308005</v>
       </c>
       <c r="O24" t="n">
-        <v>2168.131333088704</v>
+        <v>2086.540611464347</v>
       </c>
       <c r="P24" t="n">
-        <v>2452.95311534799</v>
+        <v>2371.362393723637</v>
       </c>
       <c r="Q24" t="n">
-        <v>2593.429737548629</v>
+        <v>2593.429737548628</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.429737548629</v>
+        <v>2593.429737548628</v>
       </c>
       <c r="S24" t="n">
-        <v>2461.443422161227</v>
+        <v>2461.443422161225</v>
       </c>
       <c r="T24" t="n">
-        <v>2268.24740976316</v>
+        <v>2268.247409763159</v>
       </c>
       <c r="U24" t="n">
-        <v>2040.170536585128</v>
+        <v>2040.170536585127</v>
       </c>
       <c r="V24" t="n">
-        <v>1805.018428353386</v>
+        <v>1805.018428353385</v>
       </c>
       <c r="W24" t="n">
-        <v>1550.781071625184</v>
+        <v>1550.781071625183</v>
       </c>
       <c r="X24" t="n">
-        <v>1342.929571419651</v>
+        <v>1342.92957141965</v>
       </c>
       <c r="Y24" t="n">
-        <v>1135.169272654697</v>
+        <v>1135.169272654696</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>709.8200556320207</v>
+        <v>827.6327936841012</v>
       </c>
       <c r="C25" t="n">
-        <v>540.8838727041139</v>
+        <v>658.6966107561943</v>
       </c>
       <c r="D25" t="n">
-        <v>390.7672332917782</v>
+        <v>658.6966107561943</v>
       </c>
       <c r="E25" t="n">
-        <v>242.854139709385</v>
+        <v>658.6966107561943</v>
       </c>
       <c r="F25" t="n">
-        <v>95.9641922114747</v>
+        <v>511.806663258284</v>
       </c>
       <c r="G25" t="n">
-        <v>95.9641922114747</v>
+        <v>343.9888028044428</v>
       </c>
       <c r="H25" t="n">
-        <v>95.9641922114747</v>
+        <v>196.7489496192839</v>
       </c>
       <c r="I25" t="n">
-        <v>95.9641922114747</v>
+        <v>95.96419221147463</v>
       </c>
       <c r="J25" t="n">
-        <v>133.116470454322</v>
+        <v>133.116470454323</v>
       </c>
       <c r="K25" t="n">
-        <v>324.0059130498169</v>
+        <v>324.0059130498197</v>
       </c>
       <c r="L25" t="n">
-        <v>623.8051132401595</v>
+        <v>623.8051132401647</v>
       </c>
       <c r="M25" t="n">
-        <v>950.2904579857682</v>
+        <v>950.2904579857759</v>
       </c>
       <c r="N25" t="n">
-        <v>1274.447327385806</v>
+        <v>1274.447327385816</v>
       </c>
       <c r="O25" t="n">
-        <v>1557.842367071917</v>
+        <v>1557.84236707193</v>
       </c>
       <c r="P25" t="n">
-        <v>1776.81509930046</v>
+        <v>1776.815099300474</v>
       </c>
       <c r="Q25" t="n">
-        <v>1844.985388692803</v>
+        <v>1844.985388692819</v>
       </c>
       <c r="R25" t="n">
-        <v>1844.985388692803</v>
+        <v>1749.983041849814</v>
       </c>
       <c r="S25" t="n">
-        <v>1844.985388692803</v>
+        <v>1749.983041849814</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.727307813026</v>
+        <v>1527.724960970038</v>
       </c>
       <c r="U25" t="n">
-        <v>1333.618166911657</v>
+        <v>1527.724960970038</v>
       </c>
       <c r="V25" t="n">
-        <v>1078.93367870577</v>
+        <v>1527.724960970038</v>
       </c>
       <c r="W25" t="n">
-        <v>789.5165086688098</v>
+        <v>1238.307790933077</v>
       </c>
       <c r="X25" t="n">
-        <v>789.5165086688098</v>
+        <v>1230.073837657871</v>
       </c>
       <c r="Y25" t="n">
-        <v>789.5165086688098</v>
+        <v>1009.281258514341</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6294,31 +6294,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902952</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C28" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6415,19 +6415,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1453.060509258584</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>1163.643339221624</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X28" t="n">
-        <v>935.6537883236062</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y28" t="n">
-        <v>714.8612091800761</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="29">
@@ -6455,34 +6455,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1797.117834600129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>877.1197344942216</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C31" t="n">
-        <v>708.1835515663147</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6646,25 +6646,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1823.662436710839</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1823.662436710839</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1568.977948504952</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>1279.560778467991</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>1279.560778467991</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y31" t="n">
-        <v>1058.768199324461</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="32">
@@ -6704,13 +6704,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6780,10 +6780,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6835,7 +6835,7 @@
         <v>788.5151678215061</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D34" t="n">
         <v>564.3616113774093</v>
@@ -6917,19 +6917,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6941,13 +6941,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7017,49 +7017,49 @@
         <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430903</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G37" t="n">
         <v>244.2046325160447</v>
@@ -7129,7 +7129,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V37" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W37" t="n">
         <v>1276.596863849073</v>
@@ -7138,7 +7138,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036719</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7163,37 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2749.9835782646</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215055</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F40" t="n">
         <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7330,13 +7330,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477364</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,19 +7351,19 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
         <v>1518.56440093796</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036718</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>750.1800661608922</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1614.698881814247</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2593.249184644075</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3573.001456870722</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7479,7 +7479,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215047</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416711</v>
       </c>
       <c r="D43" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774087</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430892</v>
+        <v>463.898150743089</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.457836193252</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160443</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036711</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7658,7 +7658,7 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7679,19 +7679,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
@@ -7725,19 +7725,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7746,7 +7746,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,22 +7755,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774088</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>463.898150743089</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932524</v>
+        <v>364.457836193252</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H46" t="n">
         <v>145.4370786819758</v>
@@ -7804,13 +7804,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,7 +7825,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
@@ -7843,13 +7843,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8222,7 +8222,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>224.3418755587641</v>
       </c>
       <c r="M12" t="n">
-        <v>275.033360262378</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>36.49101924097576</v>
+        <v>36.49101924097583</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>290.2686217740117</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>78.81909576640049</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>208.5059056680337</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>45.46935800377088</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>8.57615748743433</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>138.4707968150865</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>221.5552695439249</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>208.5059056680654</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>82.41487032762504</v>
       </c>
       <c r="R18" t="n">
-        <v>8.576157487435495</v>
+        <v>8.57615748743433</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>290.2686217740589</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>150.6388177564494</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>208.5059056680647</v>
+        <v>82.41487032762504</v>
       </c>
       <c r="R21" t="n">
-        <v>8.576157487435495</v>
+        <v>8.57615748743433</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>78.81909576640084</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>290.2686217740117</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>208.5059056680654</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>82.41487032762504</v>
       </c>
       <c r="R24" t="n">
-        <v>8.576157487435495</v>
+        <v>8.57615748743433</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>411.0304280899001</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,16 +10352,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>231.5010718068643</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>133.2530576400263</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11306,10 +11306,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>344.7025836476837</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -22553,10 +22553,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>288.4648251757418</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>295.3408709174362</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>64.73615944289</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>64.73615944289395</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.516614399535</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>149.1187276908262</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>111.1122996170772</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>111.0005814968322</v>
+        <v>111.0005814968323</v>
       </c>
       <c r="S13" t="n">
-        <v>198.322437798273</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.6460300583344</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2386094496405</v>
       </c>
       <c r="V13" t="n">
-        <v>140.4902236201549</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>58.31978449400739</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.1396818493028</v>
       </c>
       <c r="H16" t="n">
-        <v>37.57607920729329</v>
+        <v>145.7674546533073</v>
       </c>
       <c r="I16" t="n">
-        <v>99.77690983373165</v>
+        <v>99.77690983373117</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>94.05232337457501</v>
+        <v>94.05232337457429</v>
       </c>
       <c r="S16" t="n">
-        <v>191.7535314455906</v>
+        <v>191.7535314455903</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>13.97427794297857</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2180494923551</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.1396818493028</v>
       </c>
       <c r="H19" t="n">
-        <v>145.7674546533075</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>99.77690983373165</v>
+        <v>99.77690983373117</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>94.05232337457501</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>191.7535314455906</v>
+        <v>191.7535314455903</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>91.06401839629888</v>
+        <v>70.61267835727648</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>44.52717728704664</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.1396818493028</v>
       </c>
       <c r="H22" t="n">
-        <v>145.7674546533075</v>
+        <v>145.7674546533073</v>
       </c>
       <c r="I22" t="n">
-        <v>99.77690983373165</v>
+        <v>99.77690983373117</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>94.05232337457429</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2180494923551</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>77.3524879766054</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.9324916755161</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.1396818493028</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.7674546533075</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>99.77690983373165</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>94.05232337457501</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>191.7535314455906</v>
+        <v>191.7535314455903</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2180494923551</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>217.558041646583</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>119.2790988036908</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>271.1000969860415</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>177.1268828462902</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>106.6658967392259</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1240588.502485392</v>
+        <v>1240588.502485391</v>
       </c>
     </row>
     <row r="3">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1208631.977206836</v>
+        <v>1208631.977206835</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1248918.233185936</v>
+        <v>1248918.233185935</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1248918.233185936</v>
+        <v>1248918.233185935</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199383.1591348138</v>
+        <v>199383.1591348134</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
@@ -26320,19 +26320,19 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>194077.1753035078</v>
+        <v>194077.1753035077</v>
       </c>
       <c r="F2" t="n">
-        <v>197804.1422566318</v>
+        <v>197804.142256632</v>
       </c>
       <c r="G2" t="n">
-        <v>197804.1422566319</v>
+        <v>197804.142256632</v>
       </c>
       <c r="H2" t="n">
-        <v>197804.1422566318</v>
+        <v>197804.142256632</v>
       </c>
       <c r="I2" t="n">
-        <v>197804.1422566318</v>
+        <v>197804.142256632</v>
       </c>
       <c r="J2" t="n">
         <v>198540.8934434915</v>
@@ -26341,13 +26341,13 @@
         <v>198540.8934434915</v>
       </c>
       <c r="L2" t="n">
+        <v>205260.4424660704</v>
+      </c>
+      <c r="M2" t="n">
         <v>205260.4424660705</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>205260.4424660708</v>
-      </c>
-      <c r="N2" t="n">
-        <v>205260.4424660707</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660708</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>510216.4288594123</v>
+        <v>510216.4288594114</v>
       </c>
       <c r="F3" t="n">
-        <v>165223.7402705831</v>
+        <v>165223.7402705906</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221821.054212295</v>
+        <v>221821.0542122887</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>37580.10929487405</v>
       </c>
       <c r="M3" t="n">
-        <v>130898.171428828</v>
+        <v>130898.1714288277</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169930.4475800593</v>
+        <v>169930.4475800585</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36668.3096618597</v>
+        <v>36668.30966185972</v>
       </c>
       <c r="F4" t="n">
-        <v>22598.2869748302</v>
+        <v>22598.28697482956</v>
       </c>
       <c r="G4" t="n">
-        <v>22598.2869748302</v>
+        <v>22598.28697482956</v>
       </c>
       <c r="H4" t="n">
-        <v>22598.28697483019</v>
+        <v>22598.28697482956</v>
       </c>
       <c r="I4" t="n">
-        <v>22598.2869748302</v>
+        <v>22598.28697482955</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
@@ -26448,13 +26448,13 @@
         <v>33605.65329740899</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="N4" t="n">
+        <v>33605.65329740896</v>
+      </c>
+      <c r="O4" t="n">
         <v>33605.65329740898</v>
-      </c>
-      <c r="O4" t="n">
-        <v>33605.653297409</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>90756.51810232863</v>
+        <v>90756.51810232855</v>
       </c>
       <c r="F5" t="n">
-        <v>95313.28996868077</v>
+        <v>95313.2899686809</v>
       </c>
       <c r="G5" t="n">
-        <v>95313.28996868077</v>
+        <v>95313.2899686809</v>
       </c>
       <c r="H5" t="n">
-        <v>95313.28996868077</v>
+        <v>95313.2899686809</v>
       </c>
       <c r="I5" t="n">
-        <v>95313.28996868077</v>
+        <v>95313.2899686809</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-643374.2457231994</v>
+        <v>-643433.0185565116</v>
       </c>
       <c r="C6" t="n">
-        <v>-60947.32245446663</v>
+        <v>-60947.32245446657</v>
       </c>
       <c r="D6" t="n">
-        <v>-60947.32245446663</v>
+        <v>-60947.32245446666</v>
       </c>
       <c r="E6" t="n">
-        <v>-443564.0813200928</v>
+        <v>-443675.9139917176</v>
       </c>
       <c r="F6" t="n">
-        <v>-85331.17495746227</v>
+        <v>-85405.73795956335</v>
       </c>
       <c r="G6" t="n">
-        <v>79892.5653131209</v>
+        <v>79818.00231102719</v>
       </c>
       <c r="H6" t="n">
-        <v>79892.5653131209</v>
+        <v>79818.00231102719</v>
       </c>
       <c r="I6" t="n">
-        <v>79892.56531312081</v>
+        <v>79818.00231102713</v>
       </c>
       <c r="J6" t="n">
-        <v>-137812.1713417071</v>
+        <v>-137879.3668319266</v>
       </c>
       <c r="K6" t="n">
-        <v>84008.88287058791</v>
+        <v>83941.6873803621</v>
       </c>
       <c r="L6" t="n">
-        <v>33742.00885968533</v>
+        <v>33742.0088596853</v>
       </c>
       <c r="M6" t="n">
-        <v>-59576.05327426834</v>
+        <v>-59576.0532742683</v>
       </c>
       <c r="N6" t="n">
-        <v>71322.11815455963</v>
+        <v>71322.11815455975</v>
       </c>
       <c r="O6" t="n">
-        <v>71322.11815455965</v>
+        <v>71322.11815455975</v>
       </c>
       <c r="P6" t="n">
-        <v>71322.11815455952</v>
+        <v>71322.11815455966</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26741,22 +26741,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>817.6023863122876</v>
+        <v>817.6023863122871</v>
       </c>
       <c r="F3" t="n">
-        <v>1026.628618713762</v>
+        <v>1026.62861871377</v>
       </c>
       <c r="G3" t="n">
-        <v>1026.628618713762</v>
+        <v>1026.62861871377</v>
       </c>
       <c r="H3" t="n">
-        <v>1026.628618713762</v>
+        <v>1026.62861871377</v>
       </c>
       <c r="I3" t="n">
-        <v>1026.628618713762</v>
+        <v>1026.62861871377</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1199.552402643434</v>
+        <v>1199.552402643433</v>
       </c>
       <c r="F4" t="n">
-        <v>1199.552402643434</v>
+        <v>1199.552402643433</v>
       </c>
       <c r="G4" t="n">
-        <v>1199.552402643434</v>
+        <v>1199.552402643433</v>
       </c>
       <c r="H4" t="n">
-        <v>1199.552402643434</v>
+        <v>1199.552402643433</v>
       </c>
       <c r="I4" t="n">
-        <v>1199.552402643434</v>
+        <v>1199.552402643433</v>
       </c>
       <c r="J4" t="n">
         <v>1194.51293060493</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>439.858722095201</v>
+        <v>439.8587220952004</v>
       </c>
       <c r="F3" t="n">
-        <v>209.026232401474</v>
+        <v>209.0262324014834</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.14808187953668</v>
+        <v>63.14808187952781</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2651298888782</v>
+        <v>525.2651298888771</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>669.2478007160521</v>
+        <v>669.247800716053</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2651298888782</v>
+        <v>525.2651298888771</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2651298888782</v>
+        <v>525.2651298888771</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>105.6283702016283</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>123.874050244991</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>93.93311345730835</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>24.5122495774708</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>133.5555860832511</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>330.1347075413825</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27777,13 +27777,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>92.42094624715395</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>88.84348556952912</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>393.2545171770619</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>100.7210022147281</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>8.418879005053626</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>144.9582650689961</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-4.050093593832571e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30235,13 +30235,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-4.050093593832571e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.286843764069495</v>
+        <v>3.286843764069493</v>
       </c>
       <c r="H11" t="n">
-        <v>33.66138869877673</v>
+        <v>33.6613886987767</v>
       </c>
       <c r="I11" t="n">
-        <v>126.7160442142894</v>
+        <v>126.7160442142893</v>
       </c>
       <c r="J11" t="n">
-        <v>278.9667559206936</v>
+        <v>278.9667559206934</v>
       </c>
       <c r="K11" t="n">
-        <v>418.0988524537555</v>
+        <v>418.0988524537552</v>
       </c>
       <c r="L11" t="n">
-        <v>518.6885972983973</v>
+        <v>518.688597298397</v>
       </c>
       <c r="M11" t="n">
-        <v>577.1410050876682</v>
+        <v>577.1410050876678</v>
       </c>
       <c r="N11" t="n">
-        <v>586.4797499323307</v>
+        <v>586.4797499323304</v>
       </c>
       <c r="O11" t="n">
-        <v>553.7961972533647</v>
+        <v>553.7961972533643</v>
       </c>
       <c r="P11" t="n">
-        <v>472.6522418278989</v>
+        <v>472.6522418278986</v>
       </c>
       <c r="Q11" t="n">
-        <v>354.94214952716</v>
+        <v>354.9421495271598</v>
       </c>
       <c r="R11" t="n">
-        <v>206.4671995947306</v>
+        <v>206.4671995947305</v>
       </c>
       <c r="S11" t="n">
-        <v>74.89895227373371</v>
+        <v>74.89895227373366</v>
       </c>
       <c r="T11" t="n">
-        <v>14.38815857721422</v>
+        <v>14.38815857721421</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2629475011255596</v>
+        <v>0.2629475011255594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.758616453577373</v>
+        <v>1.758616453577372</v>
       </c>
       <c r="H12" t="n">
-        <v>16.98453259112885</v>
+        <v>16.98453259112884</v>
       </c>
       <c r="I12" t="n">
-        <v>60.54885596746659</v>
+        <v>60.54885596746655</v>
       </c>
       <c r="J12" t="n">
-        <v>166.1506887127641</v>
+        <v>166.150688712764</v>
       </c>
       <c r="K12" t="n">
-        <v>283.9779911024481</v>
+        <v>283.9779911024479</v>
       </c>
       <c r="L12" t="n">
-        <v>381.843454098017</v>
+        <v>381.8434540980168</v>
       </c>
       <c r="M12" t="n">
-        <v>445.5933005401967</v>
+        <v>445.5933005401964</v>
       </c>
       <c r="N12" t="n">
-        <v>457.3868293012486</v>
+        <v>457.3868293012483</v>
       </c>
       <c r="O12" t="n">
-        <v>418.4195910404025</v>
+        <v>418.4195910404022</v>
       </c>
       <c r="P12" t="n">
-        <v>335.8186103326829</v>
+        <v>335.8186103326826</v>
       </c>
       <c r="Q12" t="n">
-        <v>224.4858476531398</v>
+        <v>224.4858476531397</v>
       </c>
       <c r="R12" t="n">
-        <v>109.1884847229882</v>
+        <v>109.1884847229881</v>
       </c>
       <c r="S12" t="n">
-        <v>32.66552930219373</v>
+        <v>32.66552930219371</v>
       </c>
       <c r="T12" t="n">
-        <v>7.08845842472634</v>
+        <v>7.088458424726335</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1156984508932483</v>
+        <v>0.1156984508932482</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.474364958923797</v>
+        <v>1.474364958923796</v>
       </c>
       <c r="H13" t="n">
-        <v>13.10844481661341</v>
+        <v>13.1084448166134</v>
       </c>
       <c r="I13" t="n">
-        <v>44.33817531018111</v>
+        <v>44.33817531018109</v>
       </c>
       <c r="J13" t="n">
-        <v>104.2376025959125</v>
+        <v>104.2376025959124</v>
       </c>
       <c r="K13" t="n">
-        <v>171.2944015913284</v>
+        <v>171.2944015913283</v>
       </c>
       <c r="L13" t="n">
-        <v>219.1978594385435</v>
+        <v>219.1978594385433</v>
       </c>
       <c r="M13" t="n">
-        <v>231.1134089702094</v>
+        <v>231.1134089702092</v>
       </c>
       <c r="N13" t="n">
-        <v>225.6180486687663</v>
+        <v>225.6180486687662</v>
       </c>
       <c r="O13" t="n">
-        <v>208.3947852849746</v>
+        <v>208.3947852849745</v>
       </c>
       <c r="P13" t="n">
-        <v>178.317740122929</v>
+        <v>178.3177401229289</v>
       </c>
       <c r="Q13" t="n">
-        <v>123.4579603331554</v>
+        <v>123.4579603331553</v>
       </c>
       <c r="R13" t="n">
-        <v>66.29280988033727</v>
+        <v>66.29280988033722</v>
       </c>
       <c r="S13" t="n">
-        <v>25.69416023869926</v>
+        <v>25.69416023869924</v>
       </c>
       <c r="T13" t="n">
-        <v>6.299559369947132</v>
+        <v>6.299559369947128</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08041990685038904</v>
+        <v>0.08041990685038898</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.127150225984968</v>
+        <v>4.127150225985003</v>
       </c>
       <c r="H14" t="n">
-        <v>42.26717725186857</v>
+        <v>42.26717725186893</v>
       </c>
       <c r="I14" t="n">
-        <v>159.1119590872856</v>
+        <v>159.111959087287</v>
       </c>
       <c r="J14" t="n">
-        <v>350.286716492692</v>
+        <v>350.2867164926951</v>
       </c>
       <c r="K14" t="n">
-        <v>524.9889855586358</v>
+        <v>524.9889855586404</v>
       </c>
       <c r="L14" t="n">
-        <v>651.2952592871235</v>
+        <v>651.2952592871291</v>
       </c>
       <c r="M14" t="n">
-        <v>724.6914671184836</v>
+        <v>724.6914671184899</v>
       </c>
       <c r="N14" t="n">
-        <v>736.4177326980634</v>
+        <v>736.4177326980698</v>
       </c>
       <c r="O14" t="n">
-        <v>695.3783826384254</v>
+        <v>695.3783826384314</v>
       </c>
       <c r="P14" t="n">
-        <v>593.4893614344213</v>
+        <v>593.4893614344265</v>
       </c>
       <c r="Q14" t="n">
-        <v>445.6857939663345</v>
+        <v>445.6857939663384</v>
       </c>
       <c r="R14" t="n">
-        <v>259.2521003830285</v>
+        <v>259.2521003830307</v>
       </c>
       <c r="S14" t="n">
-        <v>94.04743577463256</v>
+        <v>94.04743577463337</v>
       </c>
       <c r="T14" t="n">
-        <v>18.06660011424921</v>
+        <v>18.06660011424936</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3301720180787974</v>
+        <v>0.3301720180788003</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.208220047799412</v>
+        <v>2.208220047799431</v>
       </c>
       <c r="H15" t="n">
-        <v>21.32675677743116</v>
+        <v>21.32675677743135</v>
       </c>
       <c r="I15" t="n">
-        <v>76.02862883870783</v>
+        <v>76.02862883870849</v>
       </c>
       <c r="J15" t="n">
-        <v>208.6283686388032</v>
+        <v>208.628368638805</v>
       </c>
       <c r="K15" t="n">
-        <v>356.5791118413638</v>
+        <v>356.5791118413669</v>
       </c>
       <c r="L15" t="n">
-        <v>479.4646204662715</v>
+        <v>479.4646204662756</v>
       </c>
       <c r="M15" t="n">
-        <v>559.512597199</v>
+        <v>559.5125971990049</v>
       </c>
       <c r="N15" t="n">
-        <v>574.3212307651637</v>
+        <v>574.3212307651687</v>
       </c>
       <c r="O15" t="n">
-        <v>525.3917233902399</v>
+        <v>525.3917233902445</v>
       </c>
       <c r="P15" t="n">
-        <v>421.6731773732052</v>
+        <v>421.6731773732089</v>
       </c>
       <c r="Q15" t="n">
-        <v>281.8773520664653</v>
+        <v>281.8773520664677</v>
       </c>
       <c r="R15" t="n">
-        <v>137.1033464765285</v>
+        <v>137.1033464765296</v>
       </c>
       <c r="S15" t="n">
-        <v>41.01671887030923</v>
+        <v>41.01671887030957</v>
       </c>
       <c r="T15" t="n">
-        <v>8.900676420735346</v>
+        <v>8.900676420735422</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1452776347236456</v>
+        <v>0.1452776347236468</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.851297509155963</v>
+        <v>1.851297509155979</v>
       </c>
       <c r="H16" t="n">
-        <v>16.45971785413212</v>
+        <v>16.45971785413226</v>
       </c>
       <c r="I16" t="n">
-        <v>55.67356509352663</v>
+        <v>55.67356509352711</v>
       </c>
       <c r="J16" t="n">
-        <v>130.8867338973266</v>
+        <v>130.8867338973277</v>
       </c>
       <c r="K16" t="n">
-        <v>215.087110609211</v>
+        <v>215.0871106092128</v>
       </c>
       <c r="L16" t="n">
-        <v>275.2374496794239</v>
+        <v>275.2374496794263</v>
       </c>
       <c r="M16" t="n">
-        <v>290.1992995488752</v>
+        <v>290.1992995488777</v>
       </c>
       <c r="N16" t="n">
-        <v>283.2990088329305</v>
+        <v>283.2990088329329</v>
       </c>
       <c r="O16" t="n">
-        <v>261.6724879305175</v>
+        <v>261.6724879305198</v>
       </c>
       <c r="P16" t="n">
-        <v>223.9060187437357</v>
+        <v>223.9060187437376</v>
       </c>
       <c r="Q16" t="n">
-        <v>155.020921425778</v>
+        <v>155.0209214257793</v>
       </c>
       <c r="R16" t="n">
-        <v>83.24106800259447</v>
+        <v>83.2410680025952</v>
       </c>
       <c r="S16" t="n">
-        <v>32.26306659138164</v>
+        <v>32.26306659138192</v>
       </c>
       <c r="T16" t="n">
-        <v>7.91008935730275</v>
+        <v>7.910089357302819</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1009798641357799</v>
+        <v>0.1009798641357808</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.127150225984968</v>
+        <v>4.127150225985003</v>
       </c>
       <c r="H17" t="n">
-        <v>42.26717725186857</v>
+        <v>42.26717725186893</v>
       </c>
       <c r="I17" t="n">
-        <v>159.1119590872856</v>
+        <v>159.111959087287</v>
       </c>
       <c r="J17" t="n">
-        <v>350.286716492692</v>
+        <v>350.2867164926951</v>
       </c>
       <c r="K17" t="n">
-        <v>524.9889855586358</v>
+        <v>524.9889855586404</v>
       </c>
       <c r="L17" t="n">
-        <v>651.2952592871235</v>
+        <v>651.2952592871291</v>
       </c>
       <c r="M17" t="n">
-        <v>724.6914671184836</v>
+        <v>724.6914671184899</v>
       </c>
       <c r="N17" t="n">
-        <v>736.4177326980634</v>
+        <v>736.4177326980698</v>
       </c>
       <c r="O17" t="n">
-        <v>695.3783826384254</v>
+        <v>695.3783826384314</v>
       </c>
       <c r="P17" t="n">
-        <v>593.4893614344213</v>
+        <v>593.4893614344265</v>
       </c>
       <c r="Q17" t="n">
-        <v>445.6857939663345</v>
+        <v>445.6857939663384</v>
       </c>
       <c r="R17" t="n">
-        <v>259.2521003830285</v>
+        <v>259.2521003830307</v>
       </c>
       <c r="S17" t="n">
-        <v>94.04743577463256</v>
+        <v>94.04743577463337</v>
       </c>
       <c r="T17" t="n">
-        <v>18.06660011424921</v>
+        <v>18.06660011424936</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3301720180787974</v>
+        <v>0.3301720180788003</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.208220047799412</v>
+        <v>2.208220047799431</v>
       </c>
       <c r="H18" t="n">
-        <v>21.32675677743116</v>
+        <v>21.32675677743135</v>
       </c>
       <c r="I18" t="n">
-        <v>76.02862883870783</v>
+        <v>76.02862883870849</v>
       </c>
       <c r="J18" t="n">
-        <v>208.6283686388032</v>
+        <v>208.628368638805</v>
       </c>
       <c r="K18" t="n">
-        <v>356.5791118413638</v>
+        <v>356.5791118413669</v>
       </c>
       <c r="L18" t="n">
-        <v>479.4646204662715</v>
+        <v>479.4646204662756</v>
       </c>
       <c r="M18" t="n">
-        <v>559.512597199</v>
+        <v>559.5125971990049</v>
       </c>
       <c r="N18" t="n">
-        <v>574.3212307651637</v>
+        <v>574.3212307651687</v>
       </c>
       <c r="O18" t="n">
-        <v>525.3917233902399</v>
+        <v>525.3917233902445</v>
       </c>
       <c r="P18" t="n">
-        <v>421.6731773732052</v>
+        <v>421.6731773732089</v>
       </c>
       <c r="Q18" t="n">
-        <v>281.8773520664653</v>
+        <v>281.8773520664677</v>
       </c>
       <c r="R18" t="n">
-        <v>137.1033464765285</v>
+        <v>137.1033464765296</v>
       </c>
       <c r="S18" t="n">
-        <v>41.01671887030923</v>
+        <v>41.01671887030957</v>
       </c>
       <c r="T18" t="n">
-        <v>8.900676420735346</v>
+        <v>8.900676420735422</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1452776347236456</v>
+        <v>0.1452776347236468</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.851297509155963</v>
+        <v>1.851297509155979</v>
       </c>
       <c r="H19" t="n">
-        <v>16.45971785413212</v>
+        <v>16.45971785413226</v>
       </c>
       <c r="I19" t="n">
-        <v>55.67356509352663</v>
+        <v>55.67356509352711</v>
       </c>
       <c r="J19" t="n">
-        <v>130.8867338973266</v>
+        <v>130.8867338973277</v>
       </c>
       <c r="K19" t="n">
-        <v>215.087110609211</v>
+        <v>215.0871106092128</v>
       </c>
       <c r="L19" t="n">
-        <v>275.2374496794239</v>
+        <v>275.2374496794263</v>
       </c>
       <c r="M19" t="n">
-        <v>290.1992995488752</v>
+        <v>290.1992995488777</v>
       </c>
       <c r="N19" t="n">
-        <v>283.2990088329305</v>
+        <v>283.2990088329329</v>
       </c>
       <c r="O19" t="n">
-        <v>261.6724879305175</v>
+        <v>261.6724879305198</v>
       </c>
       <c r="P19" t="n">
-        <v>223.9060187437357</v>
+        <v>223.9060187437376</v>
       </c>
       <c r="Q19" t="n">
-        <v>155.020921425778</v>
+        <v>155.0209214257793</v>
       </c>
       <c r="R19" t="n">
-        <v>83.24106800259447</v>
+        <v>83.2410680025952</v>
       </c>
       <c r="S19" t="n">
-        <v>32.26306659138164</v>
+        <v>32.26306659138192</v>
       </c>
       <c r="T19" t="n">
-        <v>7.91008935730275</v>
+        <v>7.910089357302819</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1009798641357799</v>
+        <v>0.1009798641357808</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.127150225984968</v>
+        <v>4.127150225985003</v>
       </c>
       <c r="H20" t="n">
-        <v>42.26717725186857</v>
+        <v>42.26717725186893</v>
       </c>
       <c r="I20" t="n">
-        <v>159.1119590872856</v>
+        <v>159.111959087287</v>
       </c>
       <c r="J20" t="n">
-        <v>350.286716492692</v>
+        <v>350.2867164926951</v>
       </c>
       <c r="K20" t="n">
-        <v>524.9889855586358</v>
+        <v>524.9889855586404</v>
       </c>
       <c r="L20" t="n">
-        <v>651.2952592871235</v>
+        <v>651.2952592871291</v>
       </c>
       <c r="M20" t="n">
-        <v>724.6914671184836</v>
+        <v>724.6914671184899</v>
       </c>
       <c r="N20" t="n">
-        <v>736.4177326980634</v>
+        <v>736.4177326980698</v>
       </c>
       <c r="O20" t="n">
-        <v>695.3783826384254</v>
+        <v>695.3783826384314</v>
       </c>
       <c r="P20" t="n">
-        <v>593.4893614344213</v>
+        <v>593.4893614344265</v>
       </c>
       <c r="Q20" t="n">
-        <v>445.6857939663345</v>
+        <v>445.6857939663384</v>
       </c>
       <c r="R20" t="n">
-        <v>259.2521003830285</v>
+        <v>259.2521003830307</v>
       </c>
       <c r="S20" t="n">
-        <v>94.04743577463256</v>
+        <v>94.04743577463337</v>
       </c>
       <c r="T20" t="n">
-        <v>18.06660011424921</v>
+        <v>18.06660011424936</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3301720180787974</v>
+        <v>0.3301720180788003</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.208220047799412</v>
+        <v>2.208220047799431</v>
       </c>
       <c r="H21" t="n">
-        <v>21.32675677743116</v>
+        <v>21.32675677743135</v>
       </c>
       <c r="I21" t="n">
-        <v>76.02862883870783</v>
+        <v>76.02862883870849</v>
       </c>
       <c r="J21" t="n">
-        <v>208.6283686388032</v>
+        <v>208.628368638805</v>
       </c>
       <c r="K21" t="n">
-        <v>356.5791118413638</v>
+        <v>356.5791118413669</v>
       </c>
       <c r="L21" t="n">
-        <v>479.4646204662715</v>
+        <v>479.4646204662756</v>
       </c>
       <c r="M21" t="n">
-        <v>559.512597199</v>
+        <v>559.5125971990049</v>
       </c>
       <c r="N21" t="n">
-        <v>574.3212307651637</v>
+        <v>574.3212307651687</v>
       </c>
       <c r="O21" t="n">
-        <v>525.3917233902399</v>
+        <v>525.3917233902445</v>
       </c>
       <c r="P21" t="n">
-        <v>421.6731773732052</v>
+        <v>421.6731773732089</v>
       </c>
       <c r="Q21" t="n">
-        <v>281.8773520664653</v>
+        <v>281.8773520664677</v>
       </c>
       <c r="R21" t="n">
-        <v>137.1033464765285</v>
+        <v>137.1033464765296</v>
       </c>
       <c r="S21" t="n">
-        <v>41.01671887030923</v>
+        <v>41.01671887030957</v>
       </c>
       <c r="T21" t="n">
-        <v>8.900676420735346</v>
+        <v>8.900676420735422</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1452776347236456</v>
+        <v>0.1452776347236468</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.851297509155963</v>
+        <v>1.851297509155979</v>
       </c>
       <c r="H22" t="n">
-        <v>16.45971785413212</v>
+        <v>16.45971785413226</v>
       </c>
       <c r="I22" t="n">
-        <v>55.67356509352663</v>
+        <v>55.67356509352711</v>
       </c>
       <c r="J22" t="n">
-        <v>130.8867338973266</v>
+        <v>130.8867338973277</v>
       </c>
       <c r="K22" t="n">
-        <v>215.087110609211</v>
+        <v>215.0871106092128</v>
       </c>
       <c r="L22" t="n">
-        <v>275.2374496794239</v>
+        <v>275.2374496794263</v>
       </c>
       <c r="M22" t="n">
-        <v>290.1992995488752</v>
+        <v>290.1992995488777</v>
       </c>
       <c r="N22" t="n">
-        <v>283.2990088329305</v>
+        <v>283.2990088329329</v>
       </c>
       <c r="O22" t="n">
-        <v>261.6724879305175</v>
+        <v>261.6724879305198</v>
       </c>
       <c r="P22" t="n">
-        <v>223.9060187437357</v>
+        <v>223.9060187437376</v>
       </c>
       <c r="Q22" t="n">
-        <v>155.020921425778</v>
+        <v>155.0209214257793</v>
       </c>
       <c r="R22" t="n">
-        <v>83.24106800259447</v>
+        <v>83.2410680025952</v>
       </c>
       <c r="S22" t="n">
-        <v>32.26306659138164</v>
+        <v>32.26306659138192</v>
       </c>
       <c r="T22" t="n">
-        <v>7.91008935730275</v>
+        <v>7.910089357302819</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1009798641357799</v>
+        <v>0.1009798641357808</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.127150225984968</v>
+        <v>4.127150225985003</v>
       </c>
       <c r="H23" t="n">
-        <v>42.26717725186857</v>
+        <v>42.26717725186893</v>
       </c>
       <c r="I23" t="n">
-        <v>159.1119590872856</v>
+        <v>159.111959087287</v>
       </c>
       <c r="J23" t="n">
-        <v>350.286716492692</v>
+        <v>350.2867164926951</v>
       </c>
       <c r="K23" t="n">
-        <v>524.9889855586358</v>
+        <v>524.9889855586404</v>
       </c>
       <c r="L23" t="n">
-        <v>651.2952592871235</v>
+        <v>651.2952592871291</v>
       </c>
       <c r="M23" t="n">
-        <v>724.6914671184836</v>
+        <v>724.6914671184899</v>
       </c>
       <c r="N23" t="n">
-        <v>736.4177326980634</v>
+        <v>736.4177326980698</v>
       </c>
       <c r="O23" t="n">
-        <v>695.3783826384254</v>
+        <v>695.3783826384314</v>
       </c>
       <c r="P23" t="n">
-        <v>593.4893614344213</v>
+        <v>593.4893614344265</v>
       </c>
       <c r="Q23" t="n">
-        <v>445.6857939663345</v>
+        <v>445.6857939663384</v>
       </c>
       <c r="R23" t="n">
-        <v>259.2521003830285</v>
+        <v>259.2521003830307</v>
       </c>
       <c r="S23" t="n">
-        <v>94.04743577463256</v>
+        <v>94.04743577463337</v>
       </c>
       <c r="T23" t="n">
-        <v>18.06660011424921</v>
+        <v>18.06660011424936</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3301720180787974</v>
+        <v>0.3301720180788003</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.208220047799412</v>
+        <v>2.208220047799431</v>
       </c>
       <c r="H24" t="n">
-        <v>21.32675677743116</v>
+        <v>21.32675677743135</v>
       </c>
       <c r="I24" t="n">
-        <v>76.02862883870783</v>
+        <v>76.02862883870849</v>
       </c>
       <c r="J24" t="n">
-        <v>208.6283686388032</v>
+        <v>208.628368638805</v>
       </c>
       <c r="K24" t="n">
-        <v>356.5791118413638</v>
+        <v>356.5791118413669</v>
       </c>
       <c r="L24" t="n">
-        <v>479.4646204662715</v>
+        <v>479.4646204662756</v>
       </c>
       <c r="M24" t="n">
-        <v>559.512597199</v>
+        <v>559.5125971990049</v>
       </c>
       <c r="N24" t="n">
-        <v>574.3212307651637</v>
+        <v>574.3212307651687</v>
       </c>
       <c r="O24" t="n">
-        <v>525.3917233902399</v>
+        <v>525.3917233902445</v>
       </c>
       <c r="P24" t="n">
-        <v>421.6731773732052</v>
+        <v>421.6731773732089</v>
       </c>
       <c r="Q24" t="n">
-        <v>281.8773520664653</v>
+        <v>281.8773520664677</v>
       </c>
       <c r="R24" t="n">
-        <v>137.1033464765285</v>
+        <v>137.1033464765296</v>
       </c>
       <c r="S24" t="n">
-        <v>41.01671887030923</v>
+        <v>41.01671887030957</v>
       </c>
       <c r="T24" t="n">
-        <v>8.900676420735346</v>
+        <v>8.900676420735422</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1452776347236456</v>
+        <v>0.1452776347236468</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.851297509155963</v>
+        <v>1.851297509155979</v>
       </c>
       <c r="H25" t="n">
-        <v>16.45971785413212</v>
+        <v>16.45971785413226</v>
       </c>
       <c r="I25" t="n">
-        <v>55.67356509352663</v>
+        <v>55.67356509352711</v>
       </c>
       <c r="J25" t="n">
-        <v>130.8867338973266</v>
+        <v>130.8867338973277</v>
       </c>
       <c r="K25" t="n">
-        <v>215.087110609211</v>
+        <v>215.0871106092128</v>
       </c>
       <c r="L25" t="n">
-        <v>275.2374496794239</v>
+        <v>275.2374496794263</v>
       </c>
       <c r="M25" t="n">
-        <v>290.1992995488752</v>
+        <v>290.1992995488777</v>
       </c>
       <c r="N25" t="n">
-        <v>283.2990088329305</v>
+        <v>283.2990088329329</v>
       </c>
       <c r="O25" t="n">
-        <v>261.6724879305175</v>
+        <v>261.6724879305198</v>
       </c>
       <c r="P25" t="n">
-        <v>223.9060187437357</v>
+        <v>223.9060187437376</v>
       </c>
       <c r="Q25" t="n">
-        <v>155.020921425778</v>
+        <v>155.0209214257793</v>
       </c>
       <c r="R25" t="n">
-        <v>83.24106800259447</v>
+        <v>83.2410680025952</v>
       </c>
       <c r="S25" t="n">
-        <v>32.26306659138164</v>
+        <v>32.26306659138192</v>
       </c>
       <c r="T25" t="n">
-        <v>7.91008935730275</v>
+        <v>7.910089357302819</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1009798641357799</v>
+        <v>0.1009798641357808</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33278,7 +33278,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,10 +34787,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34942,7 +34942,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N5" t="n">
         <v>478.8956552492236</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>267.0174665660811</v>
+        <v>267.0174665660809</v>
       </c>
       <c r="K11" t="n">
-        <v>522.1544139799396</v>
+        <v>522.1544139799394</v>
       </c>
       <c r="L11" t="n">
-        <v>700.5833968788605</v>
+        <v>700.5833968788602</v>
       </c>
       <c r="M11" t="n">
-        <v>796.308305353228</v>
+        <v>796.3083053532276</v>
       </c>
       <c r="N11" t="n">
-        <v>794.413610747724</v>
+        <v>794.4136107477236</v>
       </c>
       <c r="O11" t="n">
-        <v>704.4981670944233</v>
+        <v>704.4981670944229</v>
       </c>
       <c r="P11" t="n">
-        <v>563.217954244112</v>
+        <v>563.2179542441118</v>
       </c>
       <c r="Q11" t="n">
-        <v>344.9514503126152</v>
+        <v>344.951450312615</v>
       </c>
       <c r="R11" t="n">
-        <v>56.59808165358095</v>
+        <v>56.59808165358081</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>39.31306204609737</v>
+        <v>165.4040973865061</v>
       </c>
       <c r="K12" t="n">
-        <v>410.6017891406677</v>
+        <v>410.6017891406675</v>
       </c>
       <c r="L12" t="n">
-        <v>243.2890743181429</v>
+        <v>467.6309498769066</v>
       </c>
       <c r="M12" t="n">
-        <v>578.4926268805564</v>
+        <v>303.4592666181781</v>
       </c>
       <c r="N12" t="n">
-        <v>326.0451172179153</v>
+        <v>326.0451172179149</v>
       </c>
       <c r="O12" t="n">
-        <v>669.6856658726877</v>
+        <v>275.8233465959578</v>
       </c>
       <c r="P12" t="n">
-        <v>201.8442029183526</v>
+        <v>520.3069715582895</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.50407356711833</v>
+        <v>84.50407356711816</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>10.87842247923969</v>
+        <v>10.87842247923962</v>
       </c>
       <c r="K13" t="n">
-        <v>149.0249097654456</v>
+        <v>149.0249097654454</v>
       </c>
       <c r="L13" t="n">
-        <v>246.7878846988596</v>
+        <v>246.7878846988595</v>
       </c>
       <c r="M13" t="n">
-        <v>270.69728593205</v>
+        <v>270.6972859320498</v>
       </c>
       <c r="N13" t="n">
-        <v>269.750221047995</v>
+        <v>269.7502210479947</v>
       </c>
       <c r="O13" t="n">
-        <v>232.9799131990143</v>
+        <v>232.9799131990141</v>
       </c>
       <c r="P13" t="n">
-        <v>175.5962993878225</v>
+        <v>175.5962993878224</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.29591708146104</v>
+        <v>37.29591708146096</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.2408119660057</v>
+        <v>338.3374271380825</v>
       </c>
       <c r="K14" t="n">
-        <v>304.8991345136553</v>
+        <v>629.0445470848246</v>
       </c>
       <c r="L14" t="n">
-        <v>833.1900588675867</v>
+        <v>705.7974660911535</v>
       </c>
       <c r="M14" t="n">
-        <v>943.8587673840434</v>
+        <v>494.3452338912172</v>
       </c>
       <c r="N14" t="n">
-        <v>944.3515935134567</v>
+        <v>507.0046691014789</v>
       </c>
       <c r="O14" t="n">
-        <v>846.080352479484</v>
+        <v>846.08035247949</v>
       </c>
       <c r="P14" t="n">
-        <v>441.0754614455523</v>
+        <v>684.0550738506397</v>
       </c>
       <c r="Q14" t="n">
-        <v>223.380104091885</v>
+        <v>435.6950947517936</v>
       </c>
       <c r="R14" t="n">
-        <v>43.66656256889638</v>
+        <v>109.382982441881</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>207.8817773125454</v>
+        <v>81.79074197213833</v>
       </c>
       <c r="K15" t="n">
-        <v>218.7376728670048</v>
+        <v>427.2435785350416</v>
       </c>
       <c r="L15" t="n">
-        <v>340.9102406863973</v>
+        <v>340.9102406864014</v>
       </c>
       <c r="M15" t="n">
-        <v>417.3785632769817</v>
+        <v>417.3785632769865</v>
       </c>
       <c r="N15" t="n">
-        <v>442.9795186818304</v>
+        <v>442.9795186818354</v>
       </c>
       <c r="O15" t="n">
-        <v>382.7954789457955</v>
+        <v>382.7954789458</v>
       </c>
       <c r="P15" t="n">
-        <v>333.1681279626459</v>
+        <v>287.6987699588786</v>
       </c>
       <c r="Q15" t="n">
-        <v>141.8955779804438</v>
+        <v>141.8955779804462</v>
       </c>
       <c r="R15" t="n">
-        <v>36.94551232388532</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>37.52755378065382</v>
+        <v>37.52755378065496</v>
       </c>
       <c r="K16" t="n">
-        <v>192.8176187833281</v>
+        <v>192.81761878333</v>
       </c>
       <c r="L16" t="n">
-        <v>302.82747493974</v>
+        <v>302.8274749397424</v>
       </c>
       <c r="M16" t="n">
-        <v>329.7831765107158</v>
+        <v>329.7831765107183</v>
       </c>
       <c r="N16" t="n">
-        <v>327.4311812121591</v>
+        <v>327.4311812121615</v>
       </c>
       <c r="O16" t="n">
-        <v>286.2576158445572</v>
+        <v>286.2576158445595</v>
       </c>
       <c r="P16" t="n">
-        <v>221.1845780086292</v>
+        <v>221.1845780086311</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.85887817408361</v>
+        <v>68.85887817408495</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>307.7116087810923</v>
+        <v>338.3374271380825</v>
       </c>
       <c r="K17" t="n">
-        <v>629.04454708482</v>
+        <v>629.0445470848246</v>
       </c>
       <c r="L17" t="n">
-        <v>833.1900588675867</v>
+        <v>415.5288443171418</v>
       </c>
       <c r="M17" t="n">
-        <v>494.3452338912109</v>
+        <v>943.8587673840497</v>
       </c>
       <c r="N17" t="n">
-        <v>944.3515935134567</v>
+        <v>507.0046691014789</v>
       </c>
       <c r="O17" t="n">
-        <v>846.080352479484</v>
+        <v>686.8354407606695</v>
       </c>
       <c r="P17" t="n">
-        <v>362.2563656791518</v>
+        <v>684.0550738506397</v>
       </c>
       <c r="Q17" t="n">
-        <v>223.380104091885</v>
+        <v>435.6950947517936</v>
       </c>
       <c r="R17" t="n">
-        <v>109.3829824418788</v>
+        <v>109.382982441881</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>81.79074197213654</v>
+        <v>207.8817773125472</v>
       </c>
       <c r="K18" t="n">
-        <v>427.2435785350702</v>
+        <v>218.7376728670079</v>
       </c>
       <c r="L18" t="n">
-        <v>340.9102406863973</v>
+        <v>340.9102406864014</v>
       </c>
       <c r="M18" t="n">
-        <v>417.3785632769817</v>
+        <v>417.3785632769865</v>
       </c>
       <c r="N18" t="n">
-        <v>442.9795186818304</v>
+        <v>442.9795186818354</v>
       </c>
       <c r="O18" t="n">
-        <v>382.7954789457955</v>
+        <v>382.7954789458</v>
       </c>
       <c r="P18" t="n">
-        <v>287.698769958875</v>
+        <v>287.6987699588786</v>
       </c>
       <c r="Q18" t="n">
-        <v>141.8955779804438</v>
+        <v>224.3104483080712</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>37.52755378065382</v>
+        <v>37.52755378065496</v>
       </c>
       <c r="K19" t="n">
-        <v>192.8176187833281</v>
+        <v>192.81761878333</v>
       </c>
       <c r="L19" t="n">
-        <v>302.82747493974</v>
+        <v>302.8274749397424</v>
       </c>
       <c r="M19" t="n">
-        <v>329.7831765107158</v>
+        <v>329.7831765107183</v>
       </c>
       <c r="N19" t="n">
-        <v>327.4311812121591</v>
+        <v>327.4311812121615</v>
       </c>
       <c r="O19" t="n">
-        <v>286.2576158445572</v>
+        <v>286.2576158445595</v>
       </c>
       <c r="P19" t="n">
         <v>221.1845780086311</v>
       </c>
       <c r="Q19" t="n">
-        <v>68.85887817408361</v>
+        <v>68.85887817408495</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>338.3374271380795</v>
+        <v>338.3374271380825</v>
       </c>
       <c r="K20" t="n">
-        <v>629.04454708482</v>
+        <v>629.0445470848246</v>
       </c>
       <c r="L20" t="n">
-        <v>705.7974660911951</v>
+        <v>833.1900588675923</v>
       </c>
       <c r="M20" t="n">
-        <v>494.3452338912109</v>
+        <v>494.3452338912172</v>
       </c>
       <c r="N20" t="n">
-        <v>507.0046691014725</v>
+        <v>507.0046691014789</v>
       </c>
       <c r="O20" t="n">
-        <v>846.080352479484</v>
+        <v>846.08035247949</v>
       </c>
       <c r="P20" t="n">
-        <v>684.0550738506345</v>
+        <v>684.0550738506397</v>
       </c>
       <c r="Q20" t="n">
-        <v>435.6950947517897</v>
+        <v>374.0189218483383</v>
       </c>
       <c r="R20" t="n">
-        <v>109.3829824418788</v>
+        <v>43.6665625688986</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>81.79074197213654</v>
+        <v>207.8817773125472</v>
       </c>
       <c r="K21" t="n">
-        <v>218.7376728670048</v>
+        <v>218.7376728670079</v>
       </c>
       <c r="L21" t="n">
-        <v>340.9102406863973</v>
+        <v>340.9102406864014</v>
       </c>
       <c r="M21" t="n">
-        <v>417.3785632769817</v>
+        <v>417.3785632769865</v>
       </c>
       <c r="N21" t="n">
-        <v>442.9795186818304</v>
+        <v>442.9795186818354</v>
       </c>
       <c r="O21" t="n">
-        <v>382.7954789457955</v>
+        <v>382.7954789458</v>
       </c>
       <c r="P21" t="n">
-        <v>287.698769958875</v>
+        <v>287.6987699588786</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.4014836485085</v>
+        <v>224.3104483080712</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>37.52755378065382</v>
+        <v>37.52755378065496</v>
       </c>
       <c r="K22" t="n">
-        <v>192.8176187833281</v>
+        <v>192.81761878333</v>
       </c>
       <c r="L22" t="n">
-        <v>302.82747493974</v>
+        <v>302.8274749397424</v>
       </c>
       <c r="M22" t="n">
-        <v>329.7831765107158</v>
+        <v>329.7831765107183</v>
       </c>
       <c r="N22" t="n">
-        <v>327.4311812121591</v>
+        <v>327.4311812121615</v>
       </c>
       <c r="O22" t="n">
-        <v>286.2576158445572</v>
+        <v>286.2576158445595</v>
       </c>
       <c r="P22" t="n">
-        <v>221.1845780086292</v>
+        <v>221.1845780086311</v>
       </c>
       <c r="Q22" t="n">
-        <v>68.85887817408361</v>
+        <v>68.85887817408495</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.2408119660057</v>
+        <v>338.3374271380825</v>
       </c>
       <c r="K23" t="n">
-        <v>383.7182302800561</v>
+        <v>629.0445470848246</v>
       </c>
       <c r="L23" t="n">
-        <v>833.1900588675867</v>
+        <v>705.7974660911535</v>
       </c>
       <c r="M23" t="n">
-        <v>943.8587673840434</v>
+        <v>494.3452338912172</v>
       </c>
       <c r="N23" t="n">
-        <v>944.3515935134567</v>
+        <v>507.0046691014789</v>
       </c>
       <c r="O23" t="n">
-        <v>846.080352479484</v>
+        <v>846.08035247949</v>
       </c>
       <c r="P23" t="n">
-        <v>362.2563656791518</v>
+        <v>684.0550738506397</v>
       </c>
       <c r="Q23" t="n">
-        <v>223.380104091885</v>
+        <v>435.6950947517936</v>
       </c>
       <c r="R23" t="n">
-        <v>43.66656256889638</v>
+        <v>109.382982441881</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>81.79074197213654</v>
+        <v>207.8817773125472</v>
       </c>
       <c r="K24" t="n">
-        <v>427.2435785350702</v>
+        <v>218.7376728670079</v>
       </c>
       <c r="L24" t="n">
-        <v>340.9102406863973</v>
+        <v>340.9102406864014</v>
       </c>
       <c r="M24" t="n">
-        <v>417.3785632769817</v>
+        <v>417.3785632769865</v>
       </c>
       <c r="N24" t="n">
-        <v>442.9795186818304</v>
+        <v>442.9795186818354</v>
       </c>
       <c r="O24" t="n">
-        <v>382.7954789457955</v>
+        <v>382.7954789458</v>
       </c>
       <c r="P24" t="n">
-        <v>287.698769958875</v>
+        <v>287.6987699588786</v>
       </c>
       <c r="Q24" t="n">
-        <v>141.8955779804438</v>
+        <v>224.3104483080712</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>37.52755378065382</v>
+        <v>37.52755378065496</v>
       </c>
       <c r="K25" t="n">
-        <v>192.8176187833281</v>
+        <v>192.81761878333</v>
       </c>
       <c r="L25" t="n">
-        <v>302.82747493974</v>
+        <v>302.8274749397424</v>
       </c>
       <c r="M25" t="n">
-        <v>329.7831765107158</v>
+        <v>329.7831765107183</v>
       </c>
       <c r="N25" t="n">
-        <v>327.4311812121591</v>
+        <v>327.4311812121615</v>
       </c>
       <c r="O25" t="n">
-        <v>286.2576158445572</v>
+        <v>286.2576158445595</v>
       </c>
       <c r="P25" t="n">
-        <v>221.1845780086292</v>
+        <v>221.1845780086311</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.85887817408361</v>
+        <v>68.85887817408495</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>866.6205424822323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,16 +36844,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37072,7 +37072,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,7 +37081,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37309,7 +37309,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37318,7 +37318,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>739.5540726950834</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>470.4443441954267</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38026,10 +38026,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>897.0044190605952</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
